--- a/Table/Table_xls/d道具变宠物表.xlsx
+++ b/Table/Table_xls/d道具变宠物表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 0，进入背包
 1，不进入背包</t>
         </r>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
   <si>
     <t>道具id</t>
   </si>
@@ -581,12 +582,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,19 +608,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -631,39 +647,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,23 +678,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,49 +746,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,7 +791,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,37 +881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,13 +905,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,13 +923,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,31 +935,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,55 +977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,21 +1003,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1030,36 +1017,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1069,11 +1026,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,6 +1060,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1105,10 +1107,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1117,133 +1119,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1287,8 +1289,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1342,11 +1344,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1629,21 +1626,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190:C192"/>
+      <selection activeCell="B193" sqref="B193:B197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="10.8727272727273" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3737,10 +3735,10 @@
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="19">
+      <c r="A191" s="18">
         <v>340445</v>
       </c>
-      <c r="B191" s="20">
+      <c r="B191" s="17">
         <v>900019</v>
       </c>
       <c r="C191">
@@ -3748,15 +3746,73 @@
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="19">
+      <c r="A192" s="18">
         <v>340446</v>
       </c>
-      <c r="B192" s="20">
+      <c r="B192" s="17">
         <v>900020</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="19">
+        <v>340447</v>
+      </c>
+      <c r="B193" s="17">
+        <v>999989</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="19">
+        <v>340448</v>
+      </c>
+      <c r="B194" s="17">
+        <v>999990</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="19">
+        <v>340449</v>
+      </c>
+      <c r="B195" s="17">
+        <v>999991</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="19">
+        <v>340450</v>
+      </c>
+      <c r="B196" s="17">
+        <v>999992</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="19">
+        <v>340451</v>
+      </c>
+      <c r="B197" s="17">
+        <v>999993</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3767,7 +3823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3775,7 +3831,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -3784,7 +3840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3792,7 +3848,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/Table/Table_xls/d道具变宠物表.xlsx
+++ b/Table/Table_xls/d道具变宠物表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -582,10 +582,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -608,56 +608,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,22 +622,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,7 +639,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,6 +678,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -723,8 +693,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,9 +709,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -746,7 +746,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,73 +797,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,7 +827,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,73 +923,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,13 +965,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,6 +1002,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1013,50 +1024,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,6 +1061,39 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1107,10 +1107,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1119,133 +1119,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,7 +1290,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3760,8 +3762,8 @@
       <c r="A193" s="19">
         <v>340447</v>
       </c>
-      <c r="B193" s="17">
-        <v>999989</v>
+      <c r="B193" s="20">
+        <v>530162</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -3771,8 +3773,8 @@
       <c r="A194" s="19">
         <v>340448</v>
       </c>
-      <c r="B194" s="17">
-        <v>999990</v>
+      <c r="B194" s="20">
+        <v>530163</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -3782,8 +3784,8 @@
       <c r="A195" s="19">
         <v>340449</v>
       </c>
-      <c r="B195" s="17">
-        <v>999991</v>
+      <c r="B195" s="20">
+        <v>530164</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -3793,8 +3795,8 @@
       <c r="A196" s="19">
         <v>340450</v>
       </c>
-      <c r="B196" s="17">
-        <v>999992</v>
+      <c r="B196" s="20">
+        <v>530165</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -3804,15 +3806,15 @@
       <c r="A197" s="19">
         <v>340451</v>
       </c>
-      <c r="B197" s="17">
-        <v>999993</v>
+      <c r="B197" s="20">
+        <v>530166</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="20"/>
+      <c r="A198" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/Table_xls/d道具变宠物表.xlsx
+++ b/Table/Table_xls/d道具变宠物表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,11 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">作者:
+          <t>作者:
 0，进入背包
 1，不进入背包</t>
         </r>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>道具id</t>
   </si>
@@ -331,18 +331,6 @@
     <t>333092</t>
   </si>
   <si>
-    <t>333093</t>
-  </si>
-  <si>
-    <t>333094</t>
-  </si>
-  <si>
-    <t>333095</t>
-  </si>
-  <si>
-    <t>333096</t>
-  </si>
-  <si>
     <t>333097</t>
   </si>
   <si>
@@ -575,19 +563,58 @@
   </si>
   <si>
     <t>333174</t>
+  </si>
+  <si>
+    <t>340636</t>
+  </si>
+  <si>
+    <t>340637</t>
+  </si>
+  <si>
+    <t>340638</t>
+  </si>
+  <si>
+    <t>340639</t>
+  </si>
+  <si>
+    <t>340640</t>
+  </si>
+  <si>
+    <t>340641</t>
+  </si>
+  <si>
+    <t>340642</t>
+  </si>
+  <si>
+    <t>340643</t>
+  </si>
+  <si>
+    <t>340644</t>
+  </si>
+  <si>
+    <t>340645</t>
+  </si>
+  <si>
+    <t>340646</t>
+  </si>
+  <si>
+    <t>340647</t>
+  </si>
+  <si>
+    <t>340648</t>
+  </si>
+  <si>
+    <t>340649</t>
+  </si>
+  <si>
+    <t>340650</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,161 +625,36 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,7 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,8 +675,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
+        <bgColor theme="4" tint="0.79992065187536243"/>
       </patternFill>
     </fill>
     <fill>
@@ -785,49 +687,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,152 +709,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -994,262 +722,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1261,14 +747,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1287,65 +771,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1633,20 +1080,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193:B197"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1668,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1679,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1690,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1701,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1712,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1723,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1734,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1745,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1756,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1767,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1778,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1789,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1800,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1811,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -1822,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -1833,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -1844,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1855,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1866,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1877,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -1888,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1899,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -1910,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -1921,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1932,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1943,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -1954,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -1965,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1976,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -1987,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -1998,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -2009,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -2020,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -2031,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -2042,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -2053,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -2064,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -2075,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -2086,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
@@ -2097,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -2108,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
@@ -2119,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
@@ -2130,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
@@ -2141,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
@@ -2152,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
@@ -2163,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
@@ -2174,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -2185,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -2196,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -2207,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
@@ -2218,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
@@ -2229,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
@@ -2240,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -2251,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -2262,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -2273,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
@@ -2284,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
@@ -2295,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
@@ -2306,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
@@ -2317,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -2328,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
@@ -2339,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -2350,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
@@ -2361,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
@@ -2372,7 +1818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
@@ -2383,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
@@ -2394,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>70</v>
       </c>
@@ -2405,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>71</v>
       </c>
@@ -2416,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>72</v>
       </c>
@@ -2427,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>73</v>
       </c>
@@ -2438,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>74</v>
       </c>
@@ -2449,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>75</v>
       </c>
@@ -2460,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>76</v>
       </c>
@@ -2471,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>77</v>
       </c>
@@ -2482,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
@@ -2493,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -2504,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -2515,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -2526,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -2537,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -2548,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -2559,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -2570,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -2581,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -2592,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -2603,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
@@ -2614,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -2625,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -2636,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
@@ -2647,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>93</v>
       </c>
@@ -2658,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>94</v>
       </c>
@@ -2669,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>95</v>
       </c>
@@ -2680,1180 +2126,1292 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="5">
-        <v>530001</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="3" t="s">
+      <c r="B95" s="6">
+        <v>999999</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B96" s="6">
-        <v>530005</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="3" t="s">
+        <v>999998</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="5">
-        <v>530009</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="3" t="s">
+      <c r="B97" s="6">
+        <v>999997</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="5">
-        <v>530013</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="3" t="s">
+      <c r="B98" s="6">
+        <v>999996</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B99" s="6">
-        <v>530017</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="3" t="s">
+        <v>999995</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="5">
-        <v>530021</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="3" t="s">
+      <c r="B100" s="6">
+        <v>999994</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B101" s="6">
-        <v>530025</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="3" t="s">
+        <v>999980</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="5">
-        <v>530029</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="3" t="s">
+      <c r="B102" s="6">
+        <v>999981</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B103" s="6">
-        <v>530033</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>999982</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="5">
-        <v>530037</v>
+      <c r="B104" s="7">
+        <v>530053</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="6">
-        <v>530041</v>
+      <c r="B105" s="8">
+        <v>530057</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" spans="1:3">
-      <c r="A106" s="7" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="8">
-        <v>540012</v>
-      </c>
-      <c r="C106" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" s="1" customFormat="1" spans="1:3">
-      <c r="A107" s="7" t="s">
+      <c r="B106" s="7">
+        <v>530061</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B107" s="8">
-        <v>540013</v>
-      </c>
-      <c r="C107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>530065</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="5">
-        <v>530053</v>
+      <c r="B108" s="7">
+        <v>530069</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="6">
-        <v>530057</v>
+      <c r="B109" s="8">
+        <v>530073</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="5">
-        <v>530061</v>
+      <c r="B110" s="7">
+        <v>530077</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="6">
-        <v>530065</v>
+      <c r="B111" s="8">
+        <v>530081</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="5">
-        <v>530069</v>
+      <c r="B112" s="7">
+        <v>530085</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="6">
-        <v>530073</v>
+      <c r="B113" s="8">
+        <v>530089</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="5">
-        <v>530077</v>
+      <c r="B114" s="8">
+        <v>530097</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="6">
-        <v>530081</v>
+      <c r="B115" s="8">
+        <v>530105</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="5">
-        <v>530085</v>
+      <c r="B116" s="7">
+        <v>530109</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="6">
-        <v>530089</v>
+      <c r="B117" s="8">
+        <v>530113</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="6">
-        <v>530097</v>
+      <c r="B118" s="7">
+        <v>530117</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="6">
-        <v>530105</v>
+      <c r="B119" s="8">
+        <v>530121</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="5">
-        <v>530109</v>
+      <c r="B120" s="7">
+        <v>530125</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B121" s="6">
-        <v>530113</v>
+      <c r="B121" s="8">
+        <v>530129</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B122" s="5">
-        <v>530117</v>
+      <c r="B122" s="7">
+        <v>530133</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B123" s="6">
-        <v>530121</v>
+      <c r="B123" s="8">
+        <v>530137</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B124" s="5">
-        <v>530125</v>
+      <c r="B124" s="7">
+        <v>530093</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B125" s="6">
-        <v>530129</v>
+      <c r="B125" s="8">
+        <v>530101</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="5">
-        <v>530133</v>
+      <c r="B126" s="9">
+        <v>500252</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="6">
-        <v>530137</v>
+      <c r="B127" s="10">
+        <v>510015</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="5">
-        <v>530093</v>
+      <c r="B128" s="10">
+        <v>500260</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B129" s="6">
-        <v>530101</v>
+      <c r="B129" s="10">
+        <v>500256</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="9">
-        <v>500252</v>
+      <c r="B130" s="10">
+        <v>530146</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B131" s="10">
-        <v>510015</v>
+        <v>530142</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B132" s="10">
-        <v>500260</v>
+        <v>510013</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B133" s="10">
-        <v>500256</v>
+        <v>510011</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="10">
-        <v>530146</v>
+      <c r="B134" s="11">
+        <v>500227</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B135" s="10">
-        <v>530142</v>
+        <v>500244</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B136" s="10">
-        <v>510013</v>
+      <c r="B136" s="12">
+        <v>506010</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B137" s="10">
-        <v>510011</v>
+      <c r="B137" s="11">
+        <v>500235</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B138" s="11">
-        <v>500227</v>
+        <v>500239</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B139" s="10">
-        <v>500244</v>
+      <c r="B139" s="9">
+        <v>500240</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="3" t="s">
+    <row r="140" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B140" s="12">
-        <v>506010</v>
+      <c r="B140" s="14">
+        <v>530001</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B141" s="11">
-        <v>500235</v>
+      <c r="B141" s="8">
+        <v>530005</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="11">
-        <v>500239</v>
+      <c r="B142" s="7">
+        <v>530009</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="9">
-        <v>500240</v>
+      <c r="B143" s="7">
+        <v>530013</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
     </row>
-    <row r="144" s="2" customFormat="1" spans="1:3">
-      <c r="A144" s="13" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B144" s="14">
-        <v>530001</v>
+      <c r="B144" s="8">
+        <v>530017</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B145" s="6">
-        <v>530005</v>
+      <c r="B145" s="7">
+        <v>530021</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B146" s="5">
-        <v>530009</v>
+      <c r="B146" s="8">
+        <v>530025</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B147" s="5">
-        <v>530013</v>
+      <c r="B147" s="7">
+        <v>530029</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B148" s="6">
-        <v>530017</v>
+      <c r="B148" s="8">
+        <v>530033</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B149" s="5">
-        <v>530021</v>
+      <c r="B149" s="7">
+        <v>530037</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B150" s="6">
-        <v>530025</v>
+      <c r="B150" s="8">
+        <v>530041</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B151" s="5">
-        <v>530029</v>
+      <c r="B151" s="7">
+        <v>530045</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B152" s="6">
-        <v>530033</v>
+      <c r="B152" s="8">
+        <v>530049</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B153" s="5">
-        <v>530037</v>
+      <c r="B153" s="7">
+        <v>530053</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B154" s="6">
-        <v>530041</v>
+      <c r="B154" s="8">
+        <v>530057</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B155" s="5">
-        <v>530045</v>
+      <c r="B155" s="7">
+        <v>530061</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B156" s="6">
-        <v>530049</v>
+      <c r="B156" s="8">
+        <v>530065</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B157" s="5">
-        <v>530053</v>
+      <c r="B157" s="7">
+        <v>530069</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B158" s="6">
-        <v>530057</v>
+      <c r="B158" s="8">
+        <v>530073</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B159" s="5">
-        <v>530061</v>
+      <c r="B159" s="7">
+        <v>530077</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B160" s="6">
-        <v>530065</v>
+      <c r="B160" s="8">
+        <v>530081</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B161" s="5">
-        <v>530069</v>
+      <c r="B161" s="7">
+        <v>530085</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B162" s="6">
-        <v>530073</v>
+      <c r="B162" s="8">
+        <v>530089</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B163" s="5">
-        <v>530077</v>
+      <c r="B163" s="8">
+        <v>530097</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B164" s="6">
-        <v>530081</v>
+      <c r="B164" s="8">
+        <v>530105</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B165" s="5">
-        <v>530085</v>
+      <c r="B165" s="7">
+        <v>530109</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B166" s="6">
-        <v>530089</v>
+      <c r="B166" s="8">
+        <v>530113</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B167" s="6">
-        <v>530097</v>
+      <c r="B167" s="7">
+        <v>530117</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B168" s="6">
-        <v>530105</v>
+      <c r="B168" s="8">
+        <v>530121</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B169" s="5">
-        <v>530109</v>
+      <c r="B169" s="7">
+        <v>530125</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B170" s="6">
-        <v>530113</v>
+      <c r="B170" s="8">
+        <v>530129</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B171" s="5">
-        <v>530117</v>
+      <c r="B171" s="7">
+        <v>530133</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B172" s="6">
-        <v>530121</v>
+      <c r="B172" s="8">
+        <v>530137</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="3" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>631125</v>
+      </c>
+      <c r="B173" s="15">
+        <v>999999</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>631126</v>
+      </c>
+      <c r="B174" s="15">
+        <v>999998</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>631127</v>
+      </c>
+      <c r="B175" s="15">
+        <v>999997</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>631128</v>
+      </c>
+      <c r="B176" s="15">
+        <v>999996</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>631129</v>
+      </c>
+      <c r="B177" s="15">
+        <v>999995</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>631130</v>
+      </c>
+      <c r="B178" s="15">
+        <v>999994</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>631131</v>
+      </c>
+      <c r="B179" s="15">
+        <v>999980</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>631132</v>
+      </c>
+      <c r="B180" s="16">
+        <v>999981</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>631133</v>
+      </c>
+      <c r="B181" s="16">
+        <v>999982</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="15">
+        <v>340432</v>
+      </c>
+      <c r="B182" s="17">
+        <v>999986</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="15">
+        <v>340433</v>
+      </c>
+      <c r="B183" s="17">
+        <v>999987</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="18">
+        <v>340439</v>
+      </c>
+      <c r="B184" s="17">
+        <v>999988</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="18">
+        <v>340442</v>
+      </c>
+      <c r="B185" s="17">
+        <v>900017</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="18">
+        <v>340443</v>
+      </c>
+      <c r="B186" s="17">
+        <v>900018</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="18">
+        <v>340445</v>
+      </c>
+      <c r="B187" s="17">
+        <v>900019</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="18">
+        <v>340446</v>
+      </c>
+      <c r="B188" s="17">
+        <v>900020</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="19">
+        <v>340447</v>
+      </c>
+      <c r="B189" s="20">
+        <v>530162</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="19">
+        <v>340448</v>
+      </c>
+      <c r="B190" s="20">
+        <v>530163</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="19">
+        <v>340449</v>
+      </c>
+      <c r="B191" s="20">
+        <v>530164</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="19">
+        <v>340450</v>
+      </c>
+      <c r="B192" s="20">
+        <v>530165</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="19">
+        <v>340451</v>
+      </c>
+      <c r="B193" s="20">
+        <v>530166</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A194" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B173" s="5">
-        <v>530125</v>
-      </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="3" t="s">
+      <c r="B194" s="22">
+        <v>888888</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A195" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="B174" s="6">
-        <v>530129</v>
-      </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="3" t="s">
+      <c r="B195" s="22">
+        <v>888889</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A196" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="B175" s="5">
-        <v>530133</v>
-      </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="3" t="s">
+      <c r="B196" s="22">
+        <v>888890</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A197" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B176" s="6">
-        <v>530137</v>
-      </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177">
-        <v>631125</v>
-      </c>
-      <c r="B177" s="15">
-        <v>999999</v>
-      </c>
-      <c r="C177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178">
-        <v>631126</v>
-      </c>
-      <c r="B178" s="15">
-        <v>999998</v>
-      </c>
-      <c r="C178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179">
-        <v>631127</v>
-      </c>
-      <c r="B179" s="15">
-        <v>999997</v>
-      </c>
-      <c r="C179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180">
-        <v>631128</v>
-      </c>
-      <c r="B180" s="15">
-        <v>999996</v>
-      </c>
-      <c r="C180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181">
-        <v>631129</v>
-      </c>
-      <c r="B181" s="15">
-        <v>999995</v>
-      </c>
-      <c r="C181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182">
-        <v>631130</v>
-      </c>
-      <c r="B182" s="15">
-        <v>999994</v>
-      </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183">
-        <v>631131</v>
-      </c>
-      <c r="B183" s="15">
-        <v>999980</v>
-      </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184">
-        <v>631132</v>
-      </c>
-      <c r="B184" s="16">
-        <v>999981</v>
-      </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185">
-        <v>631133</v>
-      </c>
-      <c r="B185" s="16">
-        <v>999982</v>
-      </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="15">
-        <v>340432</v>
-      </c>
-      <c r="B186" s="17">
-        <v>999986</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="15">
-        <v>340433</v>
-      </c>
-      <c r="B187" s="17">
-        <v>999987</v>
-      </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="18">
-        <v>340439</v>
-      </c>
-      <c r="B188" s="17">
-        <v>999988</v>
-      </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="18">
-        <v>340442</v>
-      </c>
-      <c r="B189" s="17">
-        <v>900017</v>
-      </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="18">
-        <v>340443</v>
-      </c>
-      <c r="B190" s="17">
-        <v>900018</v>
-      </c>
-      <c r="C190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="18">
-        <v>340445</v>
-      </c>
-      <c r="B191" s="17">
-        <v>900019</v>
-      </c>
-      <c r="C191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="18">
-        <v>340446</v>
-      </c>
-      <c r="B192" s="17">
-        <v>900020</v>
-      </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="19">
-        <v>340447</v>
-      </c>
-      <c r="B193" s="20">
-        <v>530162</v>
-      </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="19">
-        <v>340448</v>
-      </c>
-      <c r="B194" s="20">
-        <v>530163</v>
-      </c>
-      <c r="C194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="19">
-        <v>340449</v>
-      </c>
-      <c r="B195" s="20">
-        <v>530164</v>
-      </c>
-      <c r="C195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="19">
-        <v>340450</v>
-      </c>
-      <c r="B196" s="20">
-        <v>530165</v>
-      </c>
-      <c r="C196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="19">
-        <v>340451</v>
-      </c>
-      <c r="B197" s="20">
-        <v>530166</v>
+      <c r="B197" s="22">
+        <v>888891</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="15"/>
+    <row r="198" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A198" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B198" s="23">
+        <v>888892</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A199" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B199" s="23">
+        <v>888894</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A200" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B200" s="23">
+        <v>888895</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A201" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B201" s="23">
+        <v>888896</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A202" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B202" s="23">
+        <v>888897</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A203" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B203" s="23">
+        <v>888899</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A204" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B204" s="23">
+        <v>888900</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A205" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B205" s="23">
+        <v>888901</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A206" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B206" s="23">
+        <v>888902</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A207" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B207" s="23">
+        <v>888893</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A208" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B208" s="23">
+        <v>888898</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Table/Table_xls/d道具变宠物表.xlsx
+++ b/Table/Table_xls/d道具变宠物表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10305"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>道具id</t>
   </si>
@@ -608,13 +607,43 @@
   </si>
   <si>
     <t>340650</t>
+  </si>
+  <si>
+    <t>340677</t>
+  </si>
+  <si>
+    <t>340678</t>
+  </si>
+  <si>
+    <t>340684</t>
+  </si>
+  <si>
+    <t>340701</t>
+  </si>
+  <si>
+    <t>340702</t>
+  </si>
+  <si>
+    <t>340703</t>
+  </si>
+  <si>
+    <t>340704</t>
+  </si>
+  <si>
+    <t>340705</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,36 +654,171 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,8 +839,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
-        <bgColor theme="4" tint="0.79992065187536243"/>
+        <fgColor theme="4" tint="0.799890133365886"/>
+        <bgColor theme="4" tint="0.799890133365886"/>
       </patternFill>
     </fill>
     <fill>
@@ -699,7 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,8 +873,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -722,20 +1066,262 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399884029663991"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39991454817346722"/>
+        <color theme="4" tint="0.399884029663991"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,11 +1368,88 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1075,24 +1738,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C208"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="F207" sqref="F207"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="10.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1125,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1147,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1158,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1169,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1180,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1191,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1202,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1213,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1224,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1235,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1246,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1257,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -1268,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -1279,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -1290,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1301,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1312,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1323,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -1334,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1345,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -1356,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -1367,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1378,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1389,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -1400,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -1411,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1422,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -1433,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -1444,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -1455,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -1466,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -1477,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -1488,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -1499,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -1510,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -1521,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -1532,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
@@ -1543,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -1554,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
@@ -1565,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
@@ -1576,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
@@ -1587,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
@@ -1598,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
@@ -1609,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
@@ -1620,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -1631,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -1642,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -1653,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
@@ -1664,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
@@ -1675,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
@@ -1686,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -1697,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -1708,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -1719,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
@@ -1730,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
@@ -1741,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
@@ -1752,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
@@ -1763,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
@@ -1774,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
@@ -1785,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
@@ -1796,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
@@ -1807,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
@@ -1818,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
@@ -1829,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
@@ -1840,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
         <v>70</v>
       </c>
@@ -1851,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
         <v>71</v>
       </c>
@@ -1862,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
         <v>72</v>
       </c>
@@ -1873,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
         <v>73</v>
       </c>
@@ -1884,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
         <v>74</v>
       </c>
@@ -1895,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
         <v>75</v>
       </c>
@@ -1906,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
         <v>76</v>
       </c>
@@ -1917,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
         <v>77</v>
       </c>
@@ -1928,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
@@ -1939,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -1950,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
@@ -1961,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -1972,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
@@ -1983,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -1994,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
@@ -2005,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
@@ -2016,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
@@ -2027,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
@@ -2038,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -2049,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
@@ -2060,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -2071,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
@@ -2082,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
@@ -2093,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
         <v>93</v>
       </c>
@@ -2104,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
         <v>94</v>
       </c>
@@ -2115,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="3" t="s">
         <v>95</v>
       </c>
@@ -2126,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" s="1" customFormat="1" spans="1:3">
       <c r="A95" s="5" t="s">
         <v>96</v>
       </c>
@@ -2137,7 +2800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" s="1" customFormat="1" spans="1:3">
       <c r="A96" s="5" t="s">
         <v>97</v>
       </c>
@@ -2148,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" s="1" customFormat="1" spans="1:3">
       <c r="A97" s="5" t="s">
         <v>98</v>
       </c>
@@ -2159,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" s="1" customFormat="1" spans="1:3">
       <c r="A98" s="5" t="s">
         <v>99</v>
       </c>
@@ -2170,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" s="1" customFormat="1" spans="1:3">
       <c r="A99" s="5" t="s">
         <v>100</v>
       </c>
@@ -2181,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" s="1" customFormat="1" spans="1:3">
       <c r="A100" s="5" t="s">
         <v>101</v>
       </c>
@@ -2192,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" s="1" customFormat="1" spans="1:3">
       <c r="A101" s="5" t="s">
         <v>102</v>
       </c>
@@ -2203,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" s="1" customFormat="1" spans="1:3">
       <c r="A102" s="5" t="s">
         <v>103</v>
       </c>
@@ -2214,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" s="1" customFormat="1" spans="1:3">
       <c r="A103" s="5" t="s">
         <v>104</v>
       </c>
@@ -2225,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="3" t="s">
         <v>105</v>
       </c>
@@ -2236,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="3" t="s">
         <v>106</v>
       </c>
@@ -2247,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
@@ -2258,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="3" t="s">
         <v>108</v>
       </c>
@@ -2269,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="3" t="s">
         <v>109</v>
       </c>
@@ -2280,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
         <v>110</v>
       </c>
@@ -2291,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
         <v>111</v>
       </c>
@@ -2302,7 +2965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="3" t="s">
         <v>112</v>
       </c>
@@ -2313,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="3" t="s">
         <v>113</v>
       </c>
@@ -2324,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="3" t="s">
         <v>114</v>
       </c>
@@ -2335,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="3" t="s">
         <v>115</v>
       </c>
@@ -2346,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="3" t="s">
         <v>116</v>
       </c>
@@ -2357,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="3" t="s">
         <v>117</v>
       </c>
@@ -2368,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="3" t="s">
         <v>118</v>
       </c>
@@ -2379,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" s="3" t="s">
         <v>119</v>
       </c>
@@ -2390,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
         <v>120</v>
       </c>
@@ -2401,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" s="3" t="s">
         <v>121</v>
       </c>
@@ -2412,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
         <v>122</v>
       </c>
@@ -2423,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" s="3" t="s">
         <v>123</v>
       </c>
@@ -2434,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
         <v>124</v>
       </c>
@@ -2445,7 +3108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
         <v>125</v>
       </c>
@@ -2456,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" s="3" t="s">
         <v>126</v>
       </c>
@@ -2467,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
         <v>127</v>
       </c>
@@ -2478,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
         <v>128</v>
       </c>
@@ -2489,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="3" t="s">
         <v>129</v>
       </c>
@@ -2500,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="3" t="s">
         <v>130</v>
       </c>
@@ -2511,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="3" t="s">
         <v>131</v>
       </c>
@@ -2522,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="3" t="s">
         <v>132</v>
       </c>
@@ -2533,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="3" t="s">
         <v>133</v>
       </c>
@@ -2544,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="3" t="s">
         <v>134</v>
       </c>
@@ -2555,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="3" t="s">
         <v>135</v>
       </c>
@@ -2566,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="3" t="s">
         <v>136</v>
       </c>
@@ -2577,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="3" t="s">
         <v>137</v>
       </c>
@@ -2588,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="3" t="s">
         <v>138</v>
       </c>
@@ -2599,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="3" t="s">
         <v>139</v>
       </c>
@@ -2610,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" s="3" t="s">
         <v>140</v>
       </c>
@@ -2621,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" s="2" customFormat="1" spans="1:3">
       <c r="A140" s="13" t="s">
         <v>141</v>
       </c>
@@ -2632,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" s="3" t="s">
         <v>142</v>
       </c>
@@ -2643,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" s="3" t="s">
         <v>143</v>
       </c>
@@ -2654,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" s="3" t="s">
         <v>144</v>
       </c>
@@ -2665,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" s="3" t="s">
         <v>145</v>
       </c>
@@ -2676,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" s="3" t="s">
         <v>146</v>
       </c>
@@ -2687,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" s="3" t="s">
         <v>147</v>
       </c>
@@ -2698,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" s="3" t="s">
         <v>148</v>
       </c>
@@ -2709,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" s="3" t="s">
         <v>149</v>
       </c>
@@ -2720,7 +3383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" s="3" t="s">
         <v>150</v>
       </c>
@@ -2731,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" s="3" t="s">
         <v>151</v>
       </c>
@@ -2742,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" s="3" t="s">
         <v>152</v>
       </c>
@@ -2753,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" s="3" t="s">
         <v>153</v>
       </c>
@@ -2764,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" s="3" t="s">
         <v>154</v>
       </c>
@@ -2775,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" s="3" t="s">
         <v>155</v>
       </c>
@@ -2786,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" s="3" t="s">
         <v>156</v>
       </c>
@@ -2797,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" s="3" t="s">
         <v>157</v>
       </c>
@@ -2808,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" s="3" t="s">
         <v>158</v>
       </c>
@@ -2819,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" s="3" t="s">
         <v>159</v>
       </c>
@@ -2830,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" s="3" t="s">
         <v>160</v>
       </c>
@@ -2841,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" s="3" t="s">
         <v>161</v>
       </c>
@@ -2852,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" s="3" t="s">
         <v>162</v>
       </c>
@@ -2863,7 +3526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" s="3" t="s">
         <v>163</v>
       </c>
@@ -2874,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" s="3" t="s">
         <v>164</v>
       </c>
@@ -2885,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" s="3" t="s">
         <v>165</v>
       </c>
@@ -2896,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" s="3" t="s">
         <v>166</v>
       </c>
@@ -2907,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" s="3" t="s">
         <v>167</v>
       </c>
@@ -2918,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" s="3" t="s">
         <v>168</v>
       </c>
@@ -2929,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" s="3" t="s">
         <v>169</v>
       </c>
@@ -2940,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" s="3" t="s">
         <v>170</v>
       </c>
@@ -2951,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" s="3" t="s">
         <v>171</v>
       </c>
@@ -2962,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" s="3" t="s">
         <v>172</v>
       </c>
@@ -2973,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" s="3" t="s">
         <v>173</v>
       </c>
@@ -2984,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173">
         <v>631125</v>
       </c>
@@ -2995,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174">
         <v>631126</v>
       </c>
@@ -3006,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175">
         <v>631127</v>
       </c>
@@ -3017,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176">
         <v>631128</v>
       </c>
@@ -3028,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177">
         <v>631129</v>
       </c>
@@ -3039,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178">
         <v>631130</v>
       </c>
@@ -3050,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179">
         <v>631131</v>
       </c>
@@ -3061,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180">
         <v>631132</v>
       </c>
@@ -3072,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181">
         <v>631133</v>
       </c>
@@ -3083,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182" s="15">
         <v>340432</v>
       </c>
@@ -3094,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" s="15">
         <v>340433</v>
       </c>
@@ -3105,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" s="18">
         <v>340439</v>
       </c>
@@ -3116,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" s="18">
         <v>340442</v>
       </c>
@@ -3127,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" s="18">
         <v>340443</v>
       </c>
@@ -3138,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" s="18">
         <v>340445</v>
       </c>
@@ -3149,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" s="18">
         <v>340446</v>
       </c>
@@ -3160,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" s="19">
         <v>340447</v>
       </c>
@@ -3171,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" s="19">
         <v>340448</v>
       </c>
@@ -3182,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" s="19">
         <v>340449</v>
       </c>
@@ -3193,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" s="19">
         <v>340450</v>
       </c>
@@ -3204,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="19">
         <v>340451</v>
       </c>
@@ -3215,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" ht="15" spans="1:3">
       <c r="A194" s="21" t="s">
         <v>174</v>
       </c>
@@ -3226,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" ht="15" spans="1:3">
       <c r="A195" s="21" t="s">
         <v>175</v>
       </c>
@@ -3237,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" ht="15" spans="1:3">
       <c r="A196" s="21" t="s">
         <v>176</v>
       </c>
@@ -3248,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" ht="15" spans="1:3">
       <c r="A197" s="21" t="s">
         <v>177</v>
       </c>
@@ -3259,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" ht="15" spans="1:3">
       <c r="A198" s="21" t="s">
         <v>178</v>
       </c>
@@ -3270,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" ht="15" spans="1:3">
       <c r="A199" s="21" t="s">
         <v>179</v>
       </c>
@@ -3281,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" ht="15" spans="1:3">
       <c r="A200" s="21" t="s">
         <v>180</v>
       </c>
@@ -3292,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" ht="15" spans="1:3">
       <c r="A201" s="21" t="s">
         <v>181</v>
       </c>
@@ -3303,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" ht="15" spans="1:3">
       <c r="A202" s="21" t="s">
         <v>182</v>
       </c>
@@ -3314,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" ht="15" spans="1:3">
       <c r="A203" s="21" t="s">
         <v>183</v>
       </c>
@@ -3325,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" ht="15" spans="1:3">
       <c r="A204" s="21" t="s">
         <v>184</v>
       </c>
@@ -3336,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" ht="15" spans="1:3">
       <c r="A205" s="21" t="s">
         <v>185</v>
       </c>
@@ -3347,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" ht="15" spans="1:3">
       <c r="A206" s="21" t="s">
         <v>186</v>
       </c>
@@ -3358,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" ht="15" spans="1:3">
       <c r="A207" s="21" t="s">
         <v>187</v>
       </c>
@@ -3369,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" ht="15" spans="1:3">
       <c r="A208" s="21" t="s">
         <v>188</v>
       </c>
@@ -3380,38 +4043,132 @@
         <v>1</v>
       </c>
     </row>
+    <row r="209" ht="15" spans="1:3">
+      <c r="A209" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B209" s="25">
+        <v>888903</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" ht="15" spans="1:3">
+      <c r="A210" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B210" s="25">
+        <v>888904</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" ht="15" spans="1:3">
+      <c r="A211" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B211" s="27">
+        <v>888905</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" ht="15" spans="1:3">
+      <c r="A212" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B212" s="29">
+        <v>530167</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" ht="15" spans="1:3">
+      <c r="A213" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B213" s="29">
+        <v>530168</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" ht="15" spans="1:3">
+      <c r="A214" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B214" s="31">
+        <v>888906</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" ht="15" spans="1:3">
+      <c r="A215" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B215" s="31">
+        <v>888907</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" ht="15" spans="1:3">
+      <c r="A216" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B216" s="33">
+        <v>888908</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>